--- a/Excel Data General Data Wrangling/Data Raw Simulated.xlsx
+++ b/Excel Data General Data Wrangling/Data Raw Simulated.xlsx
@@ -172,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +182,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,13 +219,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -491,7 +578,7 @@
   <dimension ref="A1:AL78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2050,7 +2137,7 @@
       <c r="T14" s="4">
         <v>376875</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="5">
         <v>4267960</v>
       </c>
       <c r="V14" s="4">
@@ -3010,7 +3097,7 @@
       <c r="A23">
         <v>364370</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C23">
@@ -3712,13 +3799,13 @@
       <c r="J29" s="4">
         <v>455297</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="5">
         <v>4131311</v>
       </c>
       <c r="L29" s="4">
         <v>7637621</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="5">
         <v>74685854</v>
       </c>
       <c r="N29" s="4">
@@ -4191,10 +4278,10 @@
       <c r="O33" s="4">
         <v>3297013</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="5">
         <v>29672966</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="5">
         <v>140764858</v>
       </c>
       <c r="R33" s="4">
@@ -4795,7 +4882,7 @@
       <c r="X38" s="4">
         <v>324623</v>
       </c>
-      <c r="Y38" s="4">
+      <c r="Y38" s="5">
         <v>3844350</v>
       </c>
       <c r="Z38" s="4">
@@ -5190,7 +5277,7 @@
       <c r="A42">
         <v>872833</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C42">
@@ -5559,16 +5646,16 @@
       <c r="H45" s="4">
         <v>264490</v>
       </c>
-      <c r="I45" s="4">
+      <c r="I45" s="5">
         <v>1763043</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="5">
         <v>9851376</v>
       </c>
       <c r="K45" s="4">
         <v>28875822</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="5">
         <v>278569863</v>
       </c>
       <c r="M45" s="4">
@@ -6457,7 +6544,7 @@
       <c r="A53">
         <v>911728</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C53">
@@ -6689,7 +6776,7 @@
       <c r="A55">
         <v>926729</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C55">
@@ -7022,7 +7109,7 @@
       <c r="A58">
         <v>116140</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C58">
@@ -7254,7 +7341,7 @@
       <c r="A60">
         <v>300661</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C60">
@@ -9437,7 +9524,21 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A78">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+      <formula>999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
+      <formula>99999</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:AL78">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9446,7 +9547,7 @@
   <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17817,6 +17918,14 @@
   <sortState ref="A1:B100">
     <sortCondition ref="B73"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A74">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+      <formula>999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+      <formula>99999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17825,8 +17934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26762,6 +26871,14 @@
   <sortState ref="A1:B90">
     <sortCondition ref="B1"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A79">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>99999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26771,7 +26888,7 @@
   <dimension ref="A1:AL79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27360,7 +27477,7 @@
       <c r="A6">
         <v>300661</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
@@ -28868,7 +28985,7 @@
       <c r="A19">
         <v>872833</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C19">
@@ -31072,7 +31189,7 @@
       <c r="A38">
         <v>116140</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C38">
@@ -33160,7 +33277,7 @@
       <c r="A56">
         <v>911728</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C56">
@@ -35364,7 +35481,7 @@
       <c r="A75">
         <v>364370</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C75">
@@ -35596,7 +35713,7 @@
       <c r="A77">
         <v>926729</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C77">
@@ -35944,6 +36061,14 @@
   <sortState ref="A1:C85">
     <sortCondition ref="C66"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A79">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>999999</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>99999</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>